--- a/trab2/times-and-graphs.xlsx
+++ b/trab2/times-and-graphs.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericreis/ufrj/cad/EricFigueiredo/trab2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericreis\ufrj\cad\trab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="22420" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="19200" yWindow="465" windowWidth="19200" windowHeight="22425" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="game_of_life700" sheetId="1" r:id="rId1"/>
-    <sheet name="game_of_life2000" sheetId="2" r:id="rId2"/>
-    <sheet name="game_of_life5000" sheetId="3" r:id="rId3"/>
+    <sheet name="game_of_life700osx" sheetId="6" r:id="rId1"/>
+    <sheet name="game_of_life700" sheetId="1" r:id="rId2"/>
+    <sheet name="game_of_life2000" sheetId="2" r:id="rId3"/>
+    <sheet name="game_of_life5000" sheetId="3" r:id="rId4"/>
+    <sheet name="jacobi" sheetId="5" r:id="rId5"/>
+    <sheet name="diffusion" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
   <si>
     <t>p</t>
   </si>
@@ -46,8 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -57,6 +60,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,9 +95,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -97,14 +109,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -219,283 +234,100 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>game_of_life700!$A$2:$A$13</c:f>
+              <c:f>game_of_life700osx!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2048.0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>game_of_life700!$C$2:$C$13</c:f>
+              <c:f>game_of_life700osx!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.476744576562691</c:v>
+                  <c:v>2.0357354446959559</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.373288109015604</c:v>
+                  <c:v>3.8522761600093025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.674125283656129</c:v>
+                  <c:v>4.1763075282991204</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.811890313455308</c:v>
+                  <c:v>3.8992687207987267</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.154926307861354</c:v>
+                  <c:v>3.4735277760049597</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.445452017504061</c:v>
+                  <c:v>2.9871178679797086</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.203759928040664</c:v>
+                  <c:v>2.1470314745414072</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.904958649419587</c:v>
+                  <c:v>1.3784862539885707</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.420918896670896</c:v>
+                  <c:v>0.67588937451891917</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.936944655968473</c:v>
+                  <c:v>0.33789725521672898</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.536763505951318</c:v>
+                  <c:v>0.14818737585373876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>game_of_life700!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sp = Ts/Sp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>game_of_life700!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>game_of_life700!$C$2:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.476744576562691</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.373288109015604</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.674125283656129</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.811890313455308</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.154926307861354</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.445452017504061</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.203759928040664</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.904958649419587</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.420918896670896</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.936944655968473</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.536763505951318</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CB2-4373-A168-0D297BEF4F4C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -512,7 +344,7 @@
       <c:valAx>
         <c:axId val="-451603088"/>
         <c:scaling>
-          <c:logBase val="2.0"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -592,6 +424,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -794,10 +627,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -912,95 +745,100 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>game_of_life700!$A$2:$A$13</c:f>
+              <c:f>jacobi!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2048.0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>game_of_life700!$D$2:$D$13</c:f>
+              <c:f>jacobi!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.738372288281345</c:v>
+                  <c:v>0.96645580441101042</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.593322027253901</c:v>
+                  <c:v>0.8820234361590914</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.459265660457016</c:v>
+                  <c:v>0.72888567965546591</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.238243144590957</c:v>
+                  <c:v>0.44812278031456115</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0673414471206673</c:v>
+                  <c:v>0.16092372862055618</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0382101877735009</c:v>
+                  <c:v>4.7840864466682016E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0172168744378177</c:v>
+                  <c:v>2.0489949311588741E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00744124472429526</c:v>
+                  <c:v>9.03118609406953E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00277523222006034</c:v>
+                  <c:v>3.4708032065388244E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.000914985015594211</c:v>
+                  <c:v>1.0595507720655272E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.000262091555640292</c:v>
+                  <c:v>2.7756513235135147E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-14C7-4E00-9F35-BF4D869F003F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -1011,13 +849,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-500813840"/>
-        <c:axId val="-451911104"/>
+        <c:axId val="-411398480"/>
+        <c:axId val="-401115456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-500813840"/>
+        <c:axId val="-411398480"/>
         <c:scaling>
-          <c:logBase val="2.0"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1097,6 +935,1456 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-401115456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-401115456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Eficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-411398480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>game_of_life700!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sp = Ts/Sp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>diffusion!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>diffusion!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9546205811335087</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5246413000086103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2742771130332349</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3347910772740064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-777B-488F-875B-D8BAEFEEC186}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-411060864"/>
+        <c:axId val="-411578816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-411060864"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-411578816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-411578816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-411060864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>game_of_life700!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sp = Ts/Sp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>diffusion!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>diffusion!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97731029056675434</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88116032500215258</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40928463912915436</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2084244423296254</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-50CB-409D-AE7E-EFFA7F9BF111}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-411398480"/>
+        <c:axId val="-401115456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-411398480"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-401115456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-401115456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Eficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-411398480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>game_of_life700!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sp = Ts/Sp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>game_of_life700osx!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>game_of_life700osx!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.017867722347978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96306904000232563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52203844103739006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24370429504992042</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10854774300015499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6673716687182946E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6773683394854744E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3847119296428544E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.320096434607264E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2997778829758689E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.2357117116083377E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8BBF-48A6-BE91-795FDCE14CAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-500813840"/>
+        <c:axId val="-451911104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-500813840"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1300,9 +2588,1224 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>game_of_life700!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sp = Ts/Sp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>game_of_life700!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>game_of_life700!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4676570630659758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4239323375963147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8706603717964421</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6841654637958765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7868364227824669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7940176060603088</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5393834444632888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2624452261599597</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5548857249565036</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0773321585547195</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69760117832265578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A5E-470A-8B38-C41BBE9EA00B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>game_of_life700!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sp = Ts/Sp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>game_of_life700!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>game_of_life700!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4676570630659758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4239323375963147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8706603717964421</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6841654637958765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7868364227824669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7940176060603088</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5393834444632888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2624452261599597</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5548857249565036</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0773321585547195</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69760117832265578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6A5E-470A-8B38-C41BBE9EA00B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-451603088"/>
+        <c:axId val="-451893856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-451603088"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-451893856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-451893856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-451603088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>game_of_life700!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sp = Ts/Sp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>game_of_life700!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>game_of_life700!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73382853153298788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60598308439907866</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48383254647455526</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29276034148724228</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14958863821195209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3656525094692325E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9838933159869444E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8376766646873425E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.036886181555671E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0520821860885933E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4062557535285927E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B900-406C-AFA2-0784B39F840B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-500813840"/>
+        <c:axId val="-451911104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-500813840"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-451911104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-451911104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Eficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-500813840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1422,40 +3925,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2048.0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1467,45 +3970,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.23680206156931</c:v>
+                  <c:v>1.2368020615693096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.565896055770412</c:v>
+                  <c:v>3.5658960557704118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.180396596613737</c:v>
+                  <c:v>5.8408938582905385</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.646465334907995</c:v>
+                  <c:v>8.180396596613738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.023461919646261</c:v>
+                  <c:v>8.6464653349079956</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.548684358127716</c:v>
+                  <c:v>7.0234619196462607</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.691681592198039</c:v>
+                  <c:v>7.5486843581277157</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7.691681592198039</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.985736142222443</c:v>
+                  <c:v>5.9857361422224429</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.834500000937083</c:v>
+                  <c:v>4.8345000009370827</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.287198456190847</c:v>
+                  <c:v>3.2871984561908474</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0708-4F74-9617-9479E3F6B845}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -1522,7 +4030,7 @@
       <c:valAx>
         <c:axId val="-451480032"/>
         <c:scaling>
-          <c:logBase val="2.0"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1805,10 +4313,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1928,40 +4436,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2048.0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1973,45 +4481,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.618401030784655</c:v>
+                  <c:v>0.6184010307846548</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.891474013942603</c:v>
+                  <c:v>0.89147401394260295</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.022549574576717</c:v>
+                  <c:v>0.73011173228631732</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54040408343175</c:v>
+                  <c:v>0.51127478728835862</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.219483184988946</c:v>
+                  <c:v>0.27020204171587486</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.117948193095746</c:v>
+                  <c:v>0.10974159249447282</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0600912624390472</c:v>
+                  <c:v>5.8974096547872779E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0300456312195236</c:v>
+                  <c:v>3.004563121952359E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0116908909027782</c:v>
+                  <c:v>1.1690890902778209E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00472119140716512</c:v>
+                  <c:v>4.7211914071651198E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00160507737118694</c:v>
+                  <c:v>1.6050773711869372E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22E6-491D-9890-1D438D7FB6FD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -2028,7 +4541,7 @@
       <c:valAx>
         <c:axId val="-401116480"/>
         <c:scaling>
-          <c:logBase val="2.0"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2311,10 +4824,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2409,7 +4922,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2430,95 +4942,100 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>game_of_life2000!$A$2:$A$13</c:f>
+              <c:f>game_of_life5000!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2048.0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>game_of_life2000!$C$2:$C$13</c:f>
+              <c:f>game_of_life5000!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.23680206156931</c:v>
+                  <c:v>1.7428560755368234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.565896055770412</c:v>
+                  <c:v>2.7751157018530637</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.180396596613737</c:v>
+                  <c:v>4.1204588853157142</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.646465334907995</c:v>
+                  <c:v>4.6226309028143628</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.023461919646261</c:v>
+                  <c:v>4.2293060603342383</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.548684358127716</c:v>
+                  <c:v>4.0087422027627824</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.691681592198039</c:v>
+                  <c:v>5.0170331319827515</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.691681592198039</c:v>
+                  <c:v>4.8880907516880363</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.985736142222443</c:v>
+                  <c:v>5.1723306884807352</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.834500000937083</c:v>
+                  <c:v>4.8908439177567802</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.287198456190847</c:v>
+                  <c:v>4.1307569886631379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DAF2-4DF0-9F3F-150C5FACF66B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -2535,7 +5052,7 @@
       <c:valAx>
         <c:axId val="-411060864"/>
         <c:scaling>
-          <c:logBase val="2.0"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2586,7 +5103,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2704,7 +5220,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2820,10 +5335,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2918,7 +5433,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2939,95 +5453,100 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>game_of_life2000!$A$2:$A$13</c:f>
+              <c:f>game_of_life5000!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2048.0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>game_of_life2000!$D$2:$D$13</c:f>
+              <c:f>game_of_life5000!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.618401030784655</c:v>
+                  <c:v>0.87142803776841171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.891474013942603</c:v>
+                  <c:v>0.69377892546326592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.022549574576717</c:v>
+                  <c:v>0.51505736066446428</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54040408343175</c:v>
+                  <c:v>0.28891443142589768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.219483184988946</c:v>
+                  <c:v>0.13216581438544495</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.117948193095746</c:v>
+                  <c:v>6.2636596918168475E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0600912624390472</c:v>
+                  <c:v>3.9195571343615246E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0300456312195236</c:v>
+                  <c:v>1.9094104498781392E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0116908909027782</c:v>
+                  <c:v>1.0102208375938936E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00472119140716512</c:v>
+                  <c:v>4.7762147634343556E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00160507737118694</c:v>
+                  <c:v>2.0169711858706728E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D25-498B-9C04-0D14C728B8FA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -3044,7 +5563,7 @@
       <c:valAx>
         <c:axId val="-411398480"/>
         <c:scaling>
-          <c:logBase val="2.0"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3095,7 +5614,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3213,7 +5731,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3329,7 +5846,638 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>game_of_life700!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sp = Ts/Sp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>jacobi!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>jacobi!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9329116088220208</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5280937446363656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8310854372437273</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1699644850329785</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1495593158577977</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.061815325867649</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6227135118833589</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3119836400817997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7770512417478781</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0849799905950999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5684533910555678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4273-43BD-AA12-E0ECBF35D032}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-411060864"/>
+        <c:axId val="-411578816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-411060864"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-411578816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-411578816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-411060864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3569,6 +6717,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4085,7 +7353,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4601,7 +7869,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5117,7 +8385,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5633,7 +8901,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6149,7 +9417,3103 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6682,8 +13046,16 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885AEBA8-E00C-47DA-A4E2-A249A3588A44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6712,7 +13084,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="3" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E0EFAC-1C66-4238-87E5-51E42F42CC68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6749,10 +13127,14 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6781,7 +13163,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6818,7 +13206,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6850,7 +13244,256 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C37D034-248A-4EA3-BE19-7A8E2AF36362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AABE5A0-ED9D-4694-A11A-504560EDCD96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5BC91CE-B83F-4284-89BA-C398F8ACA5C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8ED40BB-DFB7-4D8F-91C8-25742A98AF82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7135,13 +13778,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7155,12 +13798,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.83545199999999997</v>
+        <v>3.0478399999999999</v>
       </c>
       <c r="C2">
         <f>(B2/B2)</f>
@@ -7171,184 +13814,184 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.56573899999999999</v>
+        <v>1.497169</v>
       </c>
       <c r="C3">
         <f>(B2/B3)</f>
-        <v>1.4767445765626905</v>
+        <v>2.0357354446959559</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D7" si="0">(C3/A3)</f>
-        <v>0.73837228828134527</v>
+        <f t="shared" ref="D3:D13" si="0">(C3/A3)</f>
+        <v>1.017867722347978</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.35202299999999997</v>
+        <v>0.79117899999999997</v>
       </c>
       <c r="C4">
         <f>(B2/B4)</f>
-        <v>2.3732881090156042</v>
+        <v>3.8522761600093025</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.59332202725390104</v>
+        <v>0.96306904000232563</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.22738800000000001</v>
+        <v>0.72979300000000003</v>
       </c>
       <c r="C5">
         <f>(B2/B5)</f>
-        <v>3.6741252836561293</v>
+        <v>4.1763075282991204</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.45926566045701617</v>
+        <v>0.52203844103739006</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16</v>
       </c>
       <c r="B6">
-        <v>0.21917</v>
+        <v>0.78164400000000001</v>
       </c>
       <c r="C6">
         <f>(B2/B6)</f>
-        <v>3.8118903134553084</v>
+        <v>3.8992687207987267</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.23824314459095677</v>
+        <v>0.24370429504992042</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
       <c r="B7">
-        <v>0.38769399999999998</v>
+        <v>0.87744800000000001</v>
       </c>
       <c r="C7">
         <f>(B2/B7)</f>
-        <v>2.1549263078613548</v>
+        <v>3.4735277760049597</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>6.7341447120667336E-2</v>
+        <v>0.10854774300015499</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>64</v>
       </c>
       <c r="B8">
-        <v>0.34163500000000002</v>
+        <v>1.0203279999999999</v>
       </c>
       <c r="C8">
         <f>(B2/B8)</f>
-        <v>2.4454520175040613</v>
+        <v>2.9871178679797086</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D13" si="1">(C8/A8)</f>
-        <v>3.8210187773500957E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.6673716687182946E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>128</v>
       </c>
       <c r="B9">
-        <v>0.37910300000000002</v>
+        <v>1.4195599999999999</v>
       </c>
       <c r="C9">
         <f>(B2/B9)</f>
-        <v>2.2037599280406641</v>
+        <v>2.1470314745414072</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
-        <v>1.7216874437817688E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.6773683394854744E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>256</v>
       </c>
       <c r="B10">
-        <v>0.43856699999999998</v>
+        <v>2.2110050000000001</v>
       </c>
       <c r="C10">
         <f>(B2/B10)</f>
-        <v>1.9049586494195869</v>
+        <v>1.3784862539885707</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
-        <v>7.4412447242952614E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.3847119296428544E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>512</v>
       </c>
       <c r="B11">
-        <v>0.58796599999999999</v>
+        <v>4.5093769999999997</v>
       </c>
       <c r="C11">
         <f>(B2/B11)</f>
-        <v>1.4209188966708959</v>
+        <v>0.67588937451891917</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
-        <v>2.7752322200603435E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.320096434607264E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1024</v>
       </c>
       <c r="B12">
-        <v>0.89167700000000005</v>
+        <v>9.0200200000000006</v>
       </c>
       <c r="C12">
         <f>(B2/B12)</f>
-        <v>0.93694465596847276</v>
+        <v>0.33789725521672898</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
-        <v>9.1498501559421168E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.2997778829758689E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2048</v>
       </c>
       <c r="B13">
-        <v>1.556462</v>
+        <v>20.567474000000001</v>
       </c>
       <c r="C13">
         <f>(B2/B13)</f>
-        <v>0.53676350595131772</v>
+        <v>0.14818737585373876</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
-        <v>2.6209155564029186E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.2357117116083377E-5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -7357,13 +14000,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7377,12 +14020,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.7386470000000003</v>
+        <v>0.85346900000000003</v>
       </c>
       <c r="C2">
         <f>(B2/B2)</f>
@@ -7393,180 +14036,180 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.2569809999999997</v>
+        <v>0.58151799999999998</v>
       </c>
       <c r="C3">
         <f>(B2/B3)</f>
-        <v>1.2368020615693096</v>
+        <v>1.4676570630659758</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D7" si="0">(C3/A3)</f>
-        <v>0.6184010307846548</v>
+        <v>0.73382853153298788</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2.1701830000000002</v>
+        <v>0.352101</v>
       </c>
       <c r="C4">
         <f>(B2/B4)</f>
-        <v>3.5658960557704118</v>
+        <v>2.4239323375963147</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.89147401394260295</v>
+        <v>0.60598308439907866</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1.324908</v>
+        <v>0.220497</v>
       </c>
       <c r="C5">
-        <f>(B2/B6)</f>
-        <v>8.180396596613738</v>
+        <f>(B2/B5)</f>
+        <v>3.8706603717964421</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>1.0225495745767172</v>
+        <v>0.48383254647455526</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16</v>
       </c>
       <c r="B6">
-        <v>0.94599900000000003</v>
+        <v>0.182203</v>
       </c>
       <c r="C6">
-        <f>(B2/B7)</f>
-        <v>8.6464653349079956</v>
+        <f>(B2/B6)</f>
+        <v>4.6841654637958765</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.54040408343174973</v>
+        <v>0.29276034148724228</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
       <c r="B7">
-        <v>0.895007</v>
+        <v>0.17829500000000001</v>
       </c>
       <c r="C7">
-        <f>(B2/B8)</f>
-        <v>7.0234619196462607</v>
+        <f>(B2/B7)</f>
+        <v>4.7868364227824669</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.21948318498894565</v>
+        <v>0.14958863821195209</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>64</v>
       </c>
       <c r="B8">
-        <v>1.101828</v>
+        <v>0.30546299999999998</v>
       </c>
       <c r="C8">
-        <f>(B2/B9)</f>
-        <v>7.5486843581277157</v>
+        <f>(B2/B8)</f>
+        <v>2.7940176060603088</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D13" si="1">(C8/A8)</f>
-        <v>0.11794819309574556</v>
+        <v>4.3656525094692325E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>128</v>
       </c>
       <c r="B9">
-        <v>1.0251650000000001</v>
+        <v>0.33609299999999998</v>
       </c>
       <c r="C9">
-        <f>(B2/B10)</f>
-        <v>7.691681592198039</v>
+        <f>(B2/B9)</f>
+        <v>2.5393834444632888</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>6.009126243904718E-2</v>
+        <v>1.9838933159869444E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>256</v>
       </c>
       <c r="B10">
-        <v>1.0061059999999999</v>
+        <v>0.37723299999999998</v>
       </c>
       <c r="C10">
         <f>(B2/B10)</f>
-        <v>7.691681592198039</v>
+        <v>2.2624452261599597</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>3.004563121952359E-2</v>
+        <v>8.8376766646873425E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>512</v>
       </c>
       <c r="B11">
-        <v>1.292848</v>
+        <v>0.54889500000000002</v>
       </c>
       <c r="C11">
         <f>(B2/B11)</f>
-        <v>5.9857361422224429</v>
+        <v>1.5548857249565036</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>1.1690890902778209E-2</v>
+        <v>3.036886181555671E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1024</v>
       </c>
       <c r="B12">
-        <v>1.6007130000000001</v>
+        <v>0.79220599999999997</v>
       </c>
       <c r="C12">
         <f>(B2/B12)</f>
-        <v>4.8345000009370827</v>
+        <v>1.0773321585547195</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>4.7211914071651198E-3</v>
+        <v>1.0520821860885933E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2048</v>
       </c>
       <c r="B13">
-        <v>2.354177</v>
+        <v>1.2234339999999999</v>
       </c>
       <c r="C13">
         <f>(B2/B13)</f>
-        <v>3.2871984561908474</v>
+        <v>0.69760117832265578</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>1.6050773711869372E-3</v>
+        <v>3.4062557535285927E-4</v>
       </c>
     </row>
   </sheetData>
@@ -7579,13 +14222,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7599,7 +14242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7615,7 +14258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7631,7 +14274,7 @@
         <v>0.6184010307846548</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -7647,7 +14290,7 @@
         <v>0.89147401394260295</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -7655,79 +14298,79 @@
         <v>1.324908</v>
       </c>
       <c r="C5">
+        <f>(B2/B5)</f>
+        <v>5.8408938582905385</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.73011173228631732</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0.94599900000000003</v>
+      </c>
+      <c r="C6">
         <f>(B2/B6)</f>
         <v>8.180396596613738</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>1.0225495745767172</v>
+        <v>0.51127478728835862</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>0.94599900000000003</v>
-      </c>
-      <c r="C6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>0.895007</v>
+      </c>
+      <c r="C7">
         <f>(B2/B7)</f>
         <v>8.6464653349079956</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.54040408343174973</v>
+        <v>0.27020204171587486</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>32</v>
-      </c>
-      <c r="B7">
-        <v>0.895007</v>
-      </c>
-      <c r="C7">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>1.101828</v>
+      </c>
+      <c r="C8">
         <f>(B2/B8)</f>
         <v>7.0234619196462607</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.21948318498894565</v>
+      <c r="D8">
+        <f t="shared" ref="D8:D13" si="1">(C8/A8)</f>
+        <v>0.10974159249447282</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>64</v>
-      </c>
-      <c r="B8">
-        <v>1.101828</v>
-      </c>
-      <c r="C8">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>1.0251650000000001</v>
+      </c>
+      <c r="C9">
         <f>(B2/B9)</f>
         <v>7.5486843581277157</v>
       </c>
-      <c r="D8">
-        <f t="shared" ref="D8:D13" si="1">(C8/A8)</f>
-        <v>0.11794819309574556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>128</v>
-      </c>
-      <c r="B9">
-        <v>1.0251650000000001</v>
-      </c>
-      <c r="C9">
-        <f>(B2/B10)</f>
-        <v>7.691681592198039</v>
-      </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>6.009126243904718E-2</v>
+        <v>5.8974096547872779E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>256</v>
       </c>
@@ -7743,7 +14386,7 @@
         <v>3.004563121952359E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>512</v>
       </c>
@@ -7759,7 +14402,7 @@
         <v>1.1690890902778209E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1024</v>
       </c>
@@ -7775,7 +14418,7 @@
         <v>4.7211914071651198E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2048</v>
       </c>
@@ -7795,4 +14438,562 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>80.200039000000004</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B2)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>(C2/A2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>46.016444</v>
+      </c>
+      <c r="C3">
+        <f>(B2/B3)</f>
+        <v>1.7428560755368234</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D7" si="0">(C3/A3)</f>
+        <v>0.87142803776841171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>28.899709999999999</v>
+      </c>
+      <c r="C4">
+        <f>(B2/B4)</f>
+        <v>2.7751157018530637</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.69377892546326592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>19.463861000000001</v>
+      </c>
+      <c r="C5">
+        <f>(B2/B5)</f>
+        <v>4.1204588853157142</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.51505736066446428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>17.349436000000001</v>
+      </c>
+      <c r="C6">
+        <f>(B2/B6)</f>
+        <v>4.6226309028143628</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.28891443142589768</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>18.962931000000001</v>
+      </c>
+      <c r="C7">
+        <f>(B2/B7)</f>
+        <v>4.2293060603342383</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.13216581438544495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>20.006284999999998</v>
+      </c>
+      <c r="C8">
+        <f>(B2/B8)</f>
+        <v>4.0087422027627824</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D13" si="1">(C8/A8)</f>
+        <v>6.2636596918168475E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>15.985550999999999</v>
+      </c>
+      <c r="C9">
+        <f>(B2/B9)</f>
+        <v>5.0170331319827515</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>3.9195571343615246E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <v>16.407232</v>
+      </c>
+      <c r="C10">
+        <f>(B2/B10)</f>
+        <v>4.8880907516880363</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>1.9094104498781392E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>512</v>
+      </c>
+      <c r="B11">
+        <v>15.50559</v>
+      </c>
+      <c r="C11">
+        <f>(B2/B11)</f>
+        <v>5.1723306884807352</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>1.0102208375938936E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1024</v>
+      </c>
+      <c r="B12">
+        <v>16.397995999999999</v>
+      </c>
+      <c r="C12">
+        <f>(B2/B12)</f>
+        <v>4.8908439177567802</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>4.7762147634343556E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2048</v>
+      </c>
+      <c r="B13">
+        <v>19.415337000000001</v>
+      </c>
+      <c r="C13">
+        <f>(B2/B13)</f>
+        <v>4.1307569886631379</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>2.0169711858706728E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.22611200000000001</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B2)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>(C2/A2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.11698</v>
+      </c>
+      <c r="C3">
+        <f>(B2/B3)</f>
+        <v>1.9329116088220208</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D13" si="0">(C3/A3)</f>
+        <v>0.96645580441101042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>6.4088999999999993E-2</v>
+      </c>
+      <c r="C4">
+        <f>(B2/B4)</f>
+        <v>3.5280937446363656</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.8820234361590914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>3.8776999999999999E-2</v>
+      </c>
+      <c r="C5">
+        <f>(B2/B5)</f>
+        <v>5.8310854372437273</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.72888567965546591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="C6">
+        <f>(B2/B6)</f>
+        <v>7.1699644850329785</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.44812278031456115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>4.3908999999999997E-2</v>
+      </c>
+      <c r="C7">
+        <f>(B2/B7)</f>
+        <v>5.1495593158577977</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.16092372862055618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>7.3848999999999998E-2</v>
+      </c>
+      <c r="C8">
+        <f>(B2/B8)</f>
+        <v>3.061815325867649</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4.7840864466682016E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>8.6212999999999998E-2</v>
+      </c>
+      <c r="C9">
+        <f>(B2/B9)</f>
+        <v>2.6227135118833589</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2.0489949311588741E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <v>9.7799999999999998E-2</v>
+      </c>
+      <c r="C10">
+        <f>(B2/B10)</f>
+        <v>2.3119836400817997</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>9.03118609406953E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>512</v>
+      </c>
+      <c r="B11">
+        <v>0.12723999999999999</v>
+      </c>
+      <c r="C11">
+        <f>(B2/B11)</f>
+        <v>1.7770512417478781</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>3.4708032065388244E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1024</v>
+      </c>
+      <c r="B12">
+        <v>0.208402</v>
+      </c>
+      <c r="C12">
+        <f>(B2/B12)</f>
+        <v>1.0849799905950999</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1.0595507720655272E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2048</v>
+      </c>
+      <c r="B13">
+        <v>0.39776699999999998</v>
+      </c>
+      <c r="C13">
+        <f>(B2/B13)</f>
+        <v>0.5684533910555678</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2.7756513235135147E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1801.134</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B2)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>(C2/A2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>921.47500000000002</v>
+      </c>
+      <c r="C3">
+        <f>(B2/B3)</f>
+        <v>1.9546205811335087</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D13" si="0">(C3/A3)</f>
+        <v>0.97731029056675434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>511.012</v>
+      </c>
+      <c r="C4">
+        <f>(B2/B4)</f>
+        <v>3.5246413000086103</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.88116032500215258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>550.08600000000001</v>
+      </c>
+      <c r="C5">
+        <f>(B2/B5)</f>
+        <v>3.2742771130332349</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.40928463912915436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>540.10400000000004</v>
+      </c>
+      <c r="C6">
+        <f>(B2/B6)</f>
+        <v>3.3347910772740064</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.2084244423296254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>